--- a/documents/Anforderungsartefakte/Rahmenbedingungen.xlsx
+++ b/documents/Anforderungsartefakte/Rahmenbedingungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,16 +118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>330879</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536619</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>69393</xdr:rowOff>
+      <xdr:rowOff>168453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -144,7 +144,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6179820" y="83820"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="9071019" cy="5471973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +531,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -539,11 +538,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
